--- a/bio_diversity/static/data_templates/mactaquac-spawning.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-spawning.xlsx
@@ -38,9 +38,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Tray #</t>
-  </si>
-  <si>
     <t>Pri.</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>Pri. F</t>
+  </si>
+  <si>
+    <t>Cross</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
   <dimension ref="A2:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="A4:R10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,21 +515,21 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="8"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="8"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R2" s="6"/>
     </row>
@@ -544,46 +544,46 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>3</v>

--- a/bio_diversity/static/data_templates/mactaquac-spawning.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-spawning.xlsx
@@ -23,6 +23,239 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+    <author>Stoyel, Quentin</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. 1999</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. Jan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cross or Tray #</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Priority of Female: H/M/L/P</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional, units can be set to (kg) or (g).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional, units can be set to (cm) or (mm).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Priority of male: H/M/L/P</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional, units can be set to (kg) or (g).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional, units can be set to (cm) or (mm).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Order in which male was used in pairing, eg. 1/2/3
+If Dud, set Exp. # column to 0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Estimated Fecundity of pairing. Set to 0 to indicate duds.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Priority of overall paring</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Comments relevent to pairing. Optional</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
@@ -96,7 +329,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +354,19 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -484,11 +730,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,5 +898,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bio_diversity/static/data_templates/mactaquac-spawning.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-spawning.xlsx
@@ -145,6 +145,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="J3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Release / Keep
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K3" authorId="1" shapeId="0">
       <text>
         <r>
@@ -154,11 +168,25 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">Tank fish is placed in after spawning
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Priority of male: H/M/L/P</t>
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="1" shapeId="0">
+    <comment ref="N3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0">
+    <comment ref="O3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0">
+    <comment ref="P3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +225,34 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="Q3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Release / Keep</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tank fish is placed in after spawning
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -212,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0">
+    <comment ref="T3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -226,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1" shapeId="0">
+    <comment ref="U3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="1" shapeId="0">
+    <comment ref="V3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Year</t>
   </si>
@@ -320,6 +375,18 @@
   </si>
   <si>
     <t>Cross</t>
+  </si>
+  <si>
+    <t>Status, F</t>
+  </si>
+  <si>
+    <t>End Tank, F</t>
+  </si>
+  <si>
+    <t>Status, M</t>
+  </si>
+  <si>
+    <t>End Tank, M</t>
   </si>
 </sst>
 </file>
@@ -731,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R16"/>
+  <dimension ref="A2:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,16 +811,16 @@
     <col min="3" max="3" width="4.5703125" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="8" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+    <col min="15" max="17" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -764,22 +831,26 @@
         <v>9</v>
       </c>
       <c r="H2" s="6"/>
-      <c r="I2" s="8"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="8"/>
+      <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V2" s="6"/>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -804,96 +875,136 @@
       <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J13" s="11"/>
-      <c r="K13" s="13"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I14" s="14"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I15" s="14"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J16" s="11"/>
-      <c r="K16" s="16"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L13" s="11"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K14" s="14"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="15"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K15" s="14"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L16" s="11"/>
+      <c r="M16" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bio_diversity/static/data_templates/mactaquac-spawning.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-spawning.xlsx
@@ -91,11 +91,25 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Optional, must match exisiting sample number.
+PIT tag field must be blank.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Priority of Female: H/M/L/P</t>
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="1" shapeId="0">
+    <comment ref="H3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="1" shapeId="0">
+    <comment ref="I3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="1" shapeId="0">
+    <comment ref="J3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1" shapeId="0">
+    <comment ref="K3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="1" shapeId="0">
+    <comment ref="L3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +187,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0">
+    <comment ref="N3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional, must match exisiting sample number.
+PIT tag field must be blank.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -186,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0">
+    <comment ref="P3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="Q3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -212,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0">
+    <comment ref="R3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -225,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1" shapeId="0">
+    <comment ref="S3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="1" shapeId="0">
+    <comment ref="T3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -252,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="1" shapeId="0">
+    <comment ref="U3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -267,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="1" shapeId="0">
+    <comment ref="V3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -281,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="1" shapeId="0">
+    <comment ref="W3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -294,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="1" shapeId="0">
+    <comment ref="X3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -312,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Year</t>
   </si>
@@ -387,6 +415,12 @@
   </si>
   <si>
     <t>End Tank, M</t>
+  </si>
+  <si>
+    <t>Sample UFID, F</t>
+  </si>
+  <si>
+    <t>Sample UFID, M</t>
   </si>
 </sst>
 </file>
@@ -798,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V16"/>
+  <dimension ref="A2:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,47 +844,51 @@
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="4.5703125" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1"/>
-    <col min="15" max="17" width="11.42578125" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="17" max="19" width="11.42578125" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="8"/>
+      <c r="S2" s="6"/>
       <c r="T2" s="6"/>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="8"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="6"/>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X2" s="6"/>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -866,145 +904,155 @@
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="U3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H4" s="10"/>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="L4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H5" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="L5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H6" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+      <c r="L6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H7" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="L7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H8" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="L8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H9" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="L9" s="10"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H10" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="L10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="L13" s="11"/>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K14" s="14"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="15"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K15" s="14"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="L16" s="11"/>
-      <c r="M16" s="16"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L14" s="14"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L15" s="14"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bio_diversity/static/data_templates/mactaquac-spawning.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-spawning.xlsx
@@ -168,12 +168,38 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Optional, Y/N.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional, Y/N.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">Release / Keep
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="1" shapeId="0">
+    <comment ref="N3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -187,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0">
+    <comment ref="P3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="Q3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0">
+    <comment ref="R3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -227,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1" shapeId="0">
+    <comment ref="S3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="1" shapeId="0">
+    <comment ref="T3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -253,7 +279,34 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="1" shapeId="0">
+    <comment ref="U3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional, Y/N</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional Y/N</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -266,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="1" shapeId="0">
+    <comment ref="X3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="1" shapeId="0">
+    <comment ref="Y3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="1" shapeId="0">
+    <comment ref="Z3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="1" shapeId="0">
+    <comment ref="AA3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -322,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X3" authorId="1" shapeId="0">
+    <comment ref="AB3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -340,7 +393,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Year</t>
   </si>
@@ -421,6 +474,18 @@
   </si>
   <si>
     <t>Sample UFID, M</t>
+  </si>
+  <si>
+    <t>Cryo Milt Taken</t>
+  </si>
+  <si>
+    <t>Cryo Milt Used</t>
+  </si>
+  <si>
+    <t>Ovarian Fluid Taken?</t>
+  </si>
+  <si>
+    <t>Ovarian Fluid Used</t>
   </si>
 </sst>
 </file>
@@ -430,7 +495,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +530,13 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -832,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X16"/>
+  <dimension ref="A2:AB16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,17 +918,22 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="11" width="11.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
-    <col min="17" max="19" width="11.42578125" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" customWidth="1"/>
-    <col min="24" max="24" width="16.7109375" customWidth="1"/>
+    <col min="9" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="12" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" customWidth="1"/>
+    <col min="19" max="20" width="11.42578125" customWidth="1"/>
+    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" customWidth="1"/>
+    <col min="28" max="28" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -870,25 +947,29 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="L2" s="8"/>
+      <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="N2" s="8"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
-      <c r="U2" s="8"/>
+      <c r="U2" s="6"/>
       <c r="V2" s="6"/>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="6"/>
-    </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB2" s="6"/>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -919,140 +1000,168 @@
       <c r="J3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="U3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="Y3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="13"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="K14" s="14"/>
       <c r="L14" s="14"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="15"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N14" s="14"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="15"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="K15" s="14"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="13"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="16"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bio_diversity/static/data_templates/mactaquac-spawning.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-spawning.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyelq\Desktop\Work\dm_apps\dm_apps\bio_diversity\static\data_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D888F0DC-4D3F-49E8-9BE5-7454F34123F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20445" windowHeight="7170"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -23,377 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-    <author>Stoyel, Quentin</author>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>eg. 1999</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>eg. Jan</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>eg. 1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Cross or Tray #</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional, must match exisiting sample number.
-PIT tag field must be blank.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Priority of Female: H/M/L/P</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Stoyel, Quentin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Optional</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional, units can be set to (kg) or (g).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional, units can be set to (cm) or (mm).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional, Y/N.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional, Y/N.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Release / Keep
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Tank fish is placed in after spawning
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional, must match exisiting sample number.
-PIT tag field must be blank.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Priority of male: H/M/L/P</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional, units can be set to (kg) or (g).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional, units can be set to (cm) or (mm).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional, Y/N</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <u/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional Y/N</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Release / Keep</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Tank fish is placed in after spawning
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Order in which male was used in pairing, eg. 1/2/3
-If Dud, set Exp. # column to 0
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Estimated Fecundity of pairing. Set to 0 to indicate duds.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Priority of overall paring</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Comments relevent to pairing. Optional</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>Year</t>
   </si>
@@ -486,16 +118,70 @@
   </si>
   <si>
     <t>Ovarian Fluid Used</t>
+  </si>
+  <si>
+    <t>eg. 1999</t>
+  </si>
+  <si>
+    <t>eg, Apr, Sep</t>
+  </si>
+  <si>
+    <t>eg. 1</t>
+  </si>
+  <si>
+    <t>Units can be set in header to (cm) or (mm), optional</t>
+  </si>
+  <si>
+    <t>Units can be set in header to (g) or (kg), optional</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Cross or Tray number.</t>
+  </si>
+  <si>
+    <t>Female Pit tag. Must match fish in database.</t>
+  </si>
+  <si>
+    <t>Optional, must match exisiting sample number. PIT tag field must be blank.</t>
+  </si>
+  <si>
+    <t>Priority of Female: H/M/L/P</t>
+  </si>
+  <si>
+    <t>Optional. Y/N</t>
+  </si>
+  <si>
+    <t>Release / Keep</t>
+  </si>
+  <si>
+    <t>Container fish were placed in.</t>
+  </si>
+  <si>
+    <t>Male Pit tag. Must match fish in database.</t>
+  </si>
+  <si>
+    <t>Priority of male: H/M/L/P</t>
+  </si>
+  <si>
+    <t>Order in which male was used in pairing, eg. 1/2/3. If Dud, set Exp. # column to 0</t>
+  </si>
+  <si>
+    <t>Estimated Fecundity of pairing. Set to 0 to indicate duds.</t>
+  </si>
+  <si>
+    <t>Priority of overall pairing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,22 +209,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -557,7 +229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -594,11 +266,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -624,6 +324,12 @@
     </xf>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -903,11 +609,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AB16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,8 +621,10 @@
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="4.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="10" width="11.5703125" customWidth="1"/>
     <col min="11" max="12" width="20.85546875" customWidth="1"/>
@@ -930,136 +638,221 @@
     <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.42578125" customWidth="1"/>
     <col min="24" max="24" width="11.28515625" customWidth="1"/>
+    <col min="25" max="25" width="16.42578125" customWidth="1"/>
     <col min="28" max="28" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="7" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6" t="s">
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="6"/>
-    </row>
-    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="AB1" s="6"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="102" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB3" s="18" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="S4" s="10"/>
@@ -1070,6 +863,8 @@
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="S5" s="10"/>
@@ -1125,22 +920,18 @@
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="13"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="15"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="K14" s="14"/>
@@ -1148,24 +939,15 @@
       <c r="N14" s="14"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
-      <c r="Q14" s="15"/>
+      <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="16"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bio_diversity/static/data_templates/mactaquac-spawning.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-spawning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyelq\Desktop\Work\dm_apps\dm_apps\bio_diversity\static\data_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D888F0DC-4D3F-49E8-9BE5-7454F34123F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CBE9B3-948E-4F59-9FBB-21FD25B41C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,9 +156,6 @@
     <t>Release / Keep</t>
   </si>
   <si>
-    <t>Container fish were placed in.</t>
-  </si>
-  <si>
     <t>Male Pit tag. Must match fish in database.</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>Priority of overall pairing</t>
+  </si>
+  <si>
+    <t>Container fish were placed in. E.g. LP1</t>
   </si>
 </sst>
 </file>
@@ -613,7 +613,7 @@
   <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,16 +805,16 @@
         <v>42</v>
       </c>
       <c r="N3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="P3" s="18" t="s">
         <v>39</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R3" s="18" t="s">
         <v>36</v>
@@ -835,16 +835,16 @@
         <v>42</v>
       </c>
       <c r="X3" s="18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Y3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="Z3" s="18" t="s">
+      <c r="AA3" s="18" t="s">
         <v>47</v>
-      </c>
-      <c r="AA3" s="18" t="s">
-        <v>48</v>
       </c>
       <c r="AB3" s="18" t="s">
         <v>36</v>
